--- a/data/trans_orig/P32C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3590</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9086</v>
+        <v>8946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01242844658480776</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003289777645893158</v>
+        <v>0.003331582050505594</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0314580797063848</v>
+        <v>0.03097483072938933</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7356</v>
+        <v>5895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00771781351968784</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05743763425909595</v>
+        <v>0.04603373879256313</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>4578</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1786</v>
+        <v>1730</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10173</v>
+        <v>9976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01098137090975304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004283725491074129</v>
+        <v>0.004150468049408146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02440265717382233</v>
+        <v>0.023929537822211</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>285231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279735</v>
+        <v>279875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287871</v>
+        <v>287859</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9875715534151922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9685419202936152</v>
+        <v>0.9690251692706109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9967102223541067</v>
+        <v>0.9966684179494943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -836,7 +836,7 @@
         <v>127076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>120708</v>
+        <v>122169</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>128064</v>
@@ -845,7 +845,7 @@
         <v>0.9922821864803122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9425623657409059</v>
+        <v>0.9539662612074368</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>412307</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>406712</v>
+        <v>406909</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>415099</v>
+        <v>415155</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.989018629090247</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9755973428261774</v>
+        <v>0.9760704621777889</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9957162745089259</v>
+        <v>0.9958495319505918</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8727</v>
+        <v>8857</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007914520130977527</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03909657565456914</v>
+        <v>0.03968025111133561</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5197</v>
+        <v>4223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006721939020330294</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03398143890202469</v>
+        <v>0.02761488057952783</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8735</v>
+        <v>9879</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007429652826706932</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0232238632334772</v>
+        <v>0.02626470976680203</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>221444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>214484</v>
+        <v>214354</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>223211</v>
@@ -1041,7 +1041,7 @@
         <v>0.9920854798690225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9609034243454309</v>
+        <v>0.9603197488886642</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>151898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>147729</v>
+        <v>148703</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>152926</v>
@@ -1062,7 +1062,7 @@
         <v>0.9932780609796698</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9660185610979753</v>
+        <v>0.9723851194204722</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,7 +1074,7 @@
         <v>373342</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>367402</v>
+        <v>366258</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>376137</v>
@@ -1083,7 +1083,7 @@
         <v>0.9925703471732931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9767761367665226</v>
+        <v>0.9737352902331989</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1178,19 +1178,19 @@
         <v>5316</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1810</v>
+        <v>2464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10830</v>
+        <v>11037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0156922332808614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005341718245930018</v>
+        <v>0.007274703866066906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03196947130514609</v>
+        <v>0.03257888313273247</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>5316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11702</v>
+        <v>11082</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01327212116918019</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004757889573678484</v>
+        <v>0.004778149984485972</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02921505632369108</v>
+        <v>0.02766825458057752</v>
       </c>
     </row>
     <row r="11">
@@ -1241,19 +1241,19 @@
         <v>333458</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>327944</v>
+        <v>327737</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>336964</v>
+        <v>336310</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9843077667191386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9680305286948538</v>
+        <v>0.9674211168672675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9946582817540699</v>
+        <v>0.992725296133933</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -1275,19 +1275,19 @@
         <v>395232</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>388846</v>
+        <v>389466</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>398642</v>
+        <v>398634</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9867278788308198</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.970784943676309</v>
+        <v>0.9723317454194225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9952421104263216</v>
+        <v>0.9952218500155141</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>16942</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9432</v>
+        <v>10086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26532</v>
+        <v>26310</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02530441598213905</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01408723410264316</v>
+        <v>0.0150633755475276</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03962719857876323</v>
+        <v>0.03929567388799451</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8632</v>
+        <v>7324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007539596657910119</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04464760902118409</v>
+        <v>0.03788265009702632</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1421,19 +1421,19 @@
         <v>18400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10920</v>
+        <v>11125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28627</v>
+        <v>28726</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02132419400534578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01265497569208528</v>
+        <v>0.01289305125890188</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03317643162355236</v>
+        <v>0.03329131774824325</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>652597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>643007</v>
+        <v>643229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>660107</v>
+        <v>659453</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9746955840178609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9603728014212366</v>
+        <v>0.9607043261120056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9859127658973564</v>
+        <v>0.9849366244524724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>185</v>
@@ -1471,7 +1471,7 @@
         <v>191868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>184694</v>
+        <v>186002</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>193326</v>
@@ -1480,7 +1480,7 @@
         <v>0.9924604033420898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.955352390978816</v>
+        <v>0.9621173499029737</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1492,19 +1492,19 @@
         <v>844465</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>834238</v>
+        <v>834139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>851945</v>
+        <v>851740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9786758059946542</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9668235683764477</v>
+        <v>0.9667086822517569</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9873450243079148</v>
+        <v>0.9871069487410982</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>6615</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2835</v>
+        <v>2763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12631</v>
+        <v>12826</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03061611390191997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01312156844574863</v>
+        <v>0.01278841396171605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05845744253297136</v>
+        <v>0.05935985179618618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9265</v>
+        <v>9583</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01905726748821255</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06599475559324156</v>
+        <v>0.06825627991714797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1638,19 +1638,19 @@
         <v>9291</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4673</v>
+        <v>4183</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16903</v>
+        <v>16913</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02606357466741725</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01310919776122928</v>
+        <v>0.01173412454587926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04741965858418314</v>
+        <v>0.04744591897660314</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>209451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203435</v>
+        <v>203240</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213231</v>
+        <v>213303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.96938388609808</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9415425574670275</v>
+        <v>0.9406401482038136</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9868784315542514</v>
+        <v>0.9872115860382839</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -1688,7 +1688,7 @@
         <v>137719</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131130</v>
+        <v>130812</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>140395</v>
@@ -1697,7 +1697,7 @@
         <v>0.9809427325117874</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9340052444067594</v>
+        <v>0.9317437200828522</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1709,19 +1709,19 @@
         <v>347170</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>339558</v>
+        <v>339548</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>351788</v>
+        <v>352278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9739364253325827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9525803414158168</v>
+        <v>0.9525540810233969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9868908022387707</v>
+        <v>0.9882658754541207</v>
       </c>
     </row>
     <row r="18">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4464</v>
+        <v>5868</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007401470419619967</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0319967748733513</v>
+        <v>0.04206007225409664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6089</v>
+        <v>8151</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00931109700079176</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02791777830688953</v>
+        <v>0.03737114439549058</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1855,7 +1855,7 @@
         <v>3063</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>8203</v>
@@ -1864,10 +1864,10 @@
         <v>0.00856611347328747</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002809525400602206</v>
+        <v>0.002799529182455661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02293713723727991</v>
+        <v>0.02293767458135845</v>
       </c>
     </row>
     <row r="20">
@@ -1884,7 +1884,7 @@
         <v>138478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135047</v>
+        <v>133643</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>139511</v>
@@ -1893,7 +1893,7 @@
         <v>0.9925985295803801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.968003225126648</v>
+        <v>0.9579399277459022</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>216069</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>212011</v>
+        <v>209949</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>218100</v>
@@ -1914,7 +1914,7 @@
         <v>0.9906889029992082</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9720822216931105</v>
+        <v>0.9626288556045094</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1929,16 +1929,16 @@
         <v>349408</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>356606</v>
+        <v>356610</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9914338865267125</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9770628627627201</v>
+        <v>0.9770623254186416</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9971904745993978</v>
+        <v>0.9972004708175444</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>35262</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24783</v>
+        <v>24462</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50448</v>
+        <v>49138</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01879731830212559</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01321094187053616</v>
+        <v>0.01304002023915187</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02689247548339125</v>
+        <v>0.02619410282220167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2051,19 +2051,19 @@
         <v>8180</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009144158666681085</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -2072,19 +2072,19 @@
         <v>43443</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30977</v>
+        <v>30737</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58983</v>
+        <v>57559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01568035553586752</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01118102874683875</v>
+        <v>0.01109439274103272</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02128965397835155</v>
+        <v>0.02077544403881684</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>1840660</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1825474</v>
+        <v>1826784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1851139</v>
+        <v>1851460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9812026816978744</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9731075245166088</v>
+        <v>0.9738058971777984</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9867890581294639</v>
+        <v>0.9869599797608481</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>867</v>
@@ -2122,19 +2122,19 @@
         <v>886404</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>878008</v>
+        <v>878097</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>891065</v>
+        <v>891093</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9908558413333189</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9814703937619041</v>
+        <v>0.981570301982169</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9960667693606793</v>
+        <v>0.9960978638085977</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2673</v>
@@ -2143,19 +2143,19 @@
         <v>2727064</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2711524</v>
+        <v>2712948</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2739530</v>
+        <v>2739770</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9843196444641324</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9787103460216483</v>
+        <v>0.9792245559611832</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9888189712531611</v>
+        <v>0.9889056072589669</v>
       </c>
     </row>
     <row r="24">
@@ -2489,19 +2489,19 @@
         <v>7552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2896</v>
+        <v>3567</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15034</v>
+        <v>17353</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02591681925996598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009939470547814735</v>
+        <v>0.01224201491791944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05159624192667032</v>
+        <v>0.05955264282001987</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>7552</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3236</v>
+        <v>3152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15836</v>
+        <v>14808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0172226809602491</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007380093808220076</v>
+        <v>0.007187609155995975</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03611651632918649</v>
+        <v>0.03377091424583693</v>
       </c>
     </row>
     <row r="5">
@@ -2552,19 +2552,19 @@
         <v>283834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276352</v>
+        <v>274033</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288490</v>
+        <v>287819</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.974083180740034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9484037580733298</v>
+        <v>0.9404473571799802</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9900605294521854</v>
+        <v>0.9877579850820806</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>133</v>
@@ -2586,19 +2586,19 @@
         <v>430928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>422644</v>
+        <v>423672</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>435244</v>
+        <v>435328</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9827773190397509</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9638834836708136</v>
+        <v>0.9662290857541631</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9926199061917802</v>
+        <v>0.9928123908440041</v>
       </c>
     </row>
     <row r="6">
@@ -2690,19 +2690,19 @@
         <v>5207</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1942</v>
+        <v>1114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13895</v>
+        <v>13530</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02055676489005803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007666741863107224</v>
+        <v>0.004399799055748607</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05485317933249421</v>
+        <v>0.05341255905570472</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2724,19 +2724,19 @@
         <v>5207</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1096</v>
+        <v>1800</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13633</v>
+        <v>12763</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01315527669767489</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002768549530965547</v>
+        <v>0.004547987702252885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03444243250656159</v>
+        <v>0.03224469872236321</v>
       </c>
     </row>
     <row r="8">
@@ -2753,19 +2753,19 @@
         <v>248097</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>239409</v>
+        <v>239774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>251362</v>
+        <v>252190</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.979443235109942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9451468206675058</v>
+        <v>0.9465874409442949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9923332581368928</v>
+        <v>0.9956002009442514</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -2787,19 +2787,19 @@
         <v>390612</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>382186</v>
+        <v>383056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>394723</v>
+        <v>394019</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9868447233023251</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9655575674934385</v>
+        <v>0.967755301277637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972314504690344</v>
+        <v>0.9954520122977472</v>
       </c>
     </row>
     <row r="9">
@@ -2891,19 +2891,19 @@
         <v>4178</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1064</v>
+        <v>1099</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9676</v>
+        <v>9955</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01084189694812773</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002760028577338384</v>
+        <v>0.002850647874562793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02510834038373643</v>
+        <v>0.02583250764228011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>4178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1073</v>
+        <v>1087</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10313</v>
+        <v>10857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009021775715098455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002317733807425539</v>
+        <v>0.002346275322388088</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02226973887468381</v>
+        <v>0.02344430963993443</v>
       </c>
     </row>
     <row r="11">
@@ -2954,19 +2954,19 @@
         <v>381173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>375675</v>
+        <v>375396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>384287</v>
+        <v>384252</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9891581030518722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9748916596162637</v>
+        <v>0.9741674923577189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997239971422662</v>
+        <v>0.9971493521254372</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -2988,19 +2988,19 @@
         <v>458916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>452781</v>
+        <v>452237</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>462021</v>
+        <v>462007</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9909782242849016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9777302611253164</v>
+        <v>0.9765556903600656</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9976822661925745</v>
+        <v>0.9976537246776119</v>
       </c>
     </row>
     <row r="12">
@@ -3092,19 +3092,19 @@
         <v>13391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7847</v>
+        <v>7725</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22324</v>
+        <v>21786</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02036475687884834</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01193367029520187</v>
+        <v>0.01174787878007699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03394942190799934</v>
+        <v>0.03313174599270263</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5063</v>
+        <v>5510</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004377543016258364</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02212640148702609</v>
+        <v>0.02408256815896572</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -3134,19 +3134,19 @@
         <v>14392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8595</v>
+        <v>7725</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24220</v>
+        <v>23395</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01623775380932902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009696625688691432</v>
+        <v>0.008715569211541862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02732533259876189</v>
+        <v>0.02639411109767562</v>
       </c>
     </row>
     <row r="14">
@@ -3163,19 +3163,19 @@
         <v>644161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>635228</v>
+        <v>635766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>649705</v>
+        <v>649827</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9796352431211517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9660505780920011</v>
+        <v>0.9668682540072975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9880663297047982</v>
+        <v>0.9882521212199231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>208</v>
@@ -3184,7 +3184,7 @@
         <v>227807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223746</v>
+        <v>223299</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>228809</v>
@@ -3193,7 +3193,7 @@
         <v>0.9956224569837416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9778735985129738</v>
+        <v>0.9759174318410341</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3205,19 +3205,19 @@
         <v>871968</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>862140</v>
+        <v>862965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>877765</v>
+        <v>878635</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.983762246190671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9726746674012384</v>
+        <v>0.973605888902324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9903033743113085</v>
+        <v>0.9912844307884581</v>
       </c>
     </row>
     <row r="15">
@@ -3309,19 +3309,19 @@
         <v>9287</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4532</v>
+        <v>4599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16129</v>
+        <v>16599</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03053656043627154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01490074981349039</v>
+        <v>0.01512211436707121</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05303476759242441</v>
+        <v>0.05457964160118948</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6119</v>
+        <v>5126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005498040709126458</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03324775339089592</v>
+        <v>0.02784846742124412</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3351,19 +3351,19 @@
         <v>10299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5567</v>
+        <v>5378</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17623</v>
+        <v>17180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02109637016143094</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01140433274837333</v>
+        <v>0.01101582527031928</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03609991466982149</v>
+        <v>0.03519278612953462</v>
       </c>
     </row>
     <row r="17">
@@ -3380,19 +3380,19 @@
         <v>294834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>287992</v>
+        <v>287522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>299589</v>
+        <v>299522</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9694634395637285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9469652324075758</v>
+        <v>0.9454203583988092</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9850992501865096</v>
+        <v>0.9848778856329288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>167</v>
@@ -3401,7 +3401,7 @@
         <v>183044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177937</v>
+        <v>178930</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>184056</v>
@@ -3410,7 +3410,7 @@
         <v>0.9945019592908736</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.966752246609104</v>
+        <v>0.972151532578756</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3422,19 +3422,19 @@
         <v>477878</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>470554</v>
+        <v>470997</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>482610</v>
+        <v>482799</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.978903629838569</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9639000853301782</v>
+        <v>0.9648072138704654</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9885956672516266</v>
+        <v>0.9889841747296808</v>
       </c>
     </row>
     <row r="18">
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6617</v>
+        <v>5328</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009351170855113477</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04740903209225825</v>
+        <v>0.03817123162041235</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5183</v>
+        <v>5179</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003950279738006554</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0199878432021126</v>
+        <v>0.01997052620445768</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8076</v>
+        <v>8011</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005840190990548445</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02024515038999243</v>
+        <v>0.02008355343378868</v>
       </c>
     </row>
     <row r="20">
@@ -3597,7 +3597,7 @@
         <v>138277</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132965</v>
+        <v>134254</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>139582</v>
@@ -3606,7 +3606,7 @@
         <v>0.9906488291448865</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9525909679077402</v>
+        <v>0.9618287683795862</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3618,7 +3618,7 @@
         <v>258284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254125</v>
+        <v>254129</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>259308</v>
@@ -3627,7 +3627,7 @@
         <v>0.9960497202619935</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9800121567978873</v>
+        <v>0.9800294737955424</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3639,7 +3639,7 @@
         <v>396560</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>390814</v>
+        <v>390879</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>398890</v>
@@ -3648,7 +3648,7 @@
         <v>0.9941598090094516</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9797548496100063</v>
+        <v>0.9799164465662127</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -3743,19 +3743,19 @@
         <v>40920</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28280</v>
+        <v>29313</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55002</v>
+        <v>56378</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0201446770535031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01392199464145058</v>
+        <v>0.01443090074843134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02707732726294331</v>
+        <v>0.02775484065743832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -3764,19 +3764,19 @@
         <v>3038</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8174</v>
+        <v>8101</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00292239620181427</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.000961573466443054</v>
+        <v>0.0009627222431546769</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.007863135690097346</v>
+        <v>0.007792711241361431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -3785,19 +3785,19 @@
         <v>43958</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32263</v>
+        <v>32261</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58874</v>
+        <v>59988</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0143146419920936</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01050622097775868</v>
+        <v>0.01050579184079134</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01917198295710286</v>
+        <v>0.01953490209236389</v>
       </c>
     </row>
     <row r="23">
@@ -3814,19 +3814,19 @@
         <v>1990375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1976293</v>
+        <v>1974917</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2003015</v>
+        <v>2001982</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9798553229464969</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9729226727370575</v>
+        <v>0.9722451593425618</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9860780053585496</v>
+        <v>0.9855690992515687</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>952</v>
@@ -3835,19 +3835,19 @@
         <v>1036487</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1031351</v>
+        <v>1031424</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1038525</v>
+        <v>1038524</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9970776037981858</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9921368643099027</v>
+        <v>0.9922072887586386</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.999038426533557</v>
+        <v>0.9990372777568454</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2822</v>
@@ -3856,19 +3856,19 @@
         <v>3026862</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3011946</v>
+        <v>3010832</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3038557</v>
+        <v>3038559</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9856853580079064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9808280170428971</v>
+        <v>0.9804650979076363</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9894937790222413</v>
+        <v>0.9894942081592086</v>
       </c>
     </row>
     <row r="24">
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6470</v>
+        <v>6929</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00677436166448432</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02248322725845586</v>
+        <v>0.02407814800472426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6840</v>
+        <v>6577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004436181407176026</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01556364104885536</v>
+        <v>0.01496618140779412</v>
       </c>
     </row>
     <row r="5">
@@ -4265,7 +4265,7 @@
         <v>285839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281319</v>
+        <v>280860</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>287789</v>
@@ -4274,7 +4274,7 @@
         <v>0.9932256383355157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9775167727415437</v>
+        <v>0.9759218519952744</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4299,7 +4299,7 @@
         <v>437523</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>432633</v>
+        <v>432896</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>439473</v>
@@ -4308,7 +4308,7 @@
         <v>0.9955638185928239</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9844363589511451</v>
+        <v>0.9850338185922068</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4403,19 +4403,19 @@
         <v>4076</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10065</v>
+        <v>10502</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01739947551308765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004420514362938058</v>
+        <v>0.004507646151117398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04296445798892823</v>
+        <v>0.04482737557815853</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -4437,19 +4437,19 @@
         <v>4076</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1093</v>
+        <v>1019</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11091</v>
+        <v>9362</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009652964624208737</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002587337774926588</v>
+        <v>0.002412195076606472</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0262642489659712</v>
+        <v>0.02216906918668849</v>
       </c>
     </row>
     <row r="8">
@@ -4466,19 +4466,19 @@
         <v>230198</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>224209</v>
+        <v>223772</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>233238</v>
+        <v>233218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9826005244869124</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9570355420110721</v>
+        <v>0.9551726244218414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995579485637062</v>
+        <v>0.9954923538488826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>176</v>
@@ -4500,19 +4500,19 @@
         <v>418204</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>411189</v>
+        <v>412918</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>421187</v>
+        <v>421261</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9903470353757913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9737357510340288</v>
+        <v>0.9778309308133112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974126622250737</v>
+        <v>0.9975878049233935</v>
       </c>
     </row>
     <row r="9">
@@ -4604,19 +4604,19 @@
         <v>3856</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11984</v>
+        <v>10483</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01179685554957799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003441725998717105</v>
+        <v>0.003419045141594071</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03666685938274213</v>
+        <v>0.03207476890086988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5542</v>
+        <v>5469</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01986439847759917</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09971533868215184</v>
+        <v>0.09841044488080061</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -4646,19 +4646,19 @@
         <v>4960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1146</v>
+        <v>1531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11510</v>
+        <v>13170</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01296927334623856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002997316113087651</v>
+        <v>0.004002205123586522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03009925644647534</v>
+        <v>0.03443771016073178</v>
       </c>
     </row>
     <row r="11">
@@ -4675,19 +4675,19 @@
         <v>322985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314857</v>
+        <v>316358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>325716</v>
+        <v>325724</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.988203144450422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9633331406172578</v>
+        <v>0.9679252310991302</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965582740012828</v>
+        <v>0.9965809548584059</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -4696,7 +4696,7 @@
         <v>54471</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50033</v>
+        <v>50106</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>55575</v>
@@ -4705,7 +4705,7 @@
         <v>0.9801356015224009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9002846613178482</v>
+        <v>0.9015895551191994</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4717,19 +4717,19 @@
         <v>377456</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>370906</v>
+        <v>369246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>381270</v>
+        <v>380885</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9870307266537615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.969900743553525</v>
+        <v>0.9655622898392691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970026838869124</v>
+        <v>0.9959977948764158</v>
       </c>
     </row>
     <row r="12">
@@ -4821,19 +4821,19 @@
         <v>12763</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7191</v>
+        <v>7170</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21205</v>
+        <v>20941</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01947324893321086</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01097221364390761</v>
+        <v>0.01094010808464296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03235513275518837</v>
+        <v>0.03195193027670243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8071</v>
+        <v>6477</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00705099395016144</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0271224276638016</v>
+        <v>0.0217670119249428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -4863,19 +4863,19 @@
         <v>14861</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8540</v>
+        <v>8690</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23488</v>
+        <v>24572</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01559423227683593</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008961344981496784</v>
+        <v>0.00911939235340949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02464746922788214</v>
+        <v>0.02578464589069746</v>
       </c>
     </row>
     <row r="14">
@@ -4892,19 +4892,19 @@
         <v>642627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>634185</v>
+        <v>634449</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>648199</v>
+        <v>648220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9805267510667891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9676448672448118</v>
+        <v>0.9680480697232976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9890277863560925</v>
+        <v>0.989059891915357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -4913,7 +4913,7 @@
         <v>295479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>289506</v>
+        <v>291100</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>297577</v>
@@ -4922,7 +4922,7 @@
         <v>0.9929490060498386</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9728775723362035</v>
+        <v>0.9782329880750572</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4934,19 +4934,19 @@
         <v>938105</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>929478</v>
+        <v>928394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>944426</v>
+        <v>944276</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.984405767723164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9753525307721179</v>
+        <v>0.9742153541093027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9910386550185032</v>
+        <v>0.9908806076465906</v>
       </c>
     </row>
     <row r="15">
@@ -5038,19 +5038,19 @@
         <v>7399</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3188</v>
+        <v>3138</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14509</v>
+        <v>13840</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02379177387371692</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01025183061558299</v>
+        <v>0.01009201894164238</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04665814251581078</v>
+        <v>0.04450595747312279</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5072,19 +5072,19 @@
         <v>7399</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3309</v>
+        <v>3040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14673</v>
+        <v>14526</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01490441147738385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006666306954410625</v>
+        <v>0.00612507906320386</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02955951536235416</v>
+        <v>0.029262691118883</v>
       </c>
     </row>
     <row r="17">
@@ -5101,19 +5101,19 @@
         <v>303571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>296461</v>
+        <v>297130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>307782</v>
+        <v>307832</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9762082261262831</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9533418574841893</v>
+        <v>0.9554940425268775</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9897481693844171</v>
+        <v>0.9899079810583576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>179</v>
@@ -5135,19 +5135,19 @@
         <v>488999</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>481725</v>
+        <v>481872</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>493089</v>
+        <v>493358</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9850955885226161</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9704404846376458</v>
+        <v>0.9707373088811169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9933336930455894</v>
+        <v>0.9938749209367961</v>
       </c>
     </row>
     <row r="18">
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5994</v>
+        <v>6755</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0120086190900806</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0374718437047303</v>
+        <v>0.04223282146491537</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5260,19 +5260,19 @@
         <v>3008</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8809</v>
+        <v>8034</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01213911404133147</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003715369488207835</v>
+        <v>0.003696822419407999</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03555349297499314</v>
+        <v>0.03242390562089079</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -5281,19 +5281,19 @@
         <v>4928</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1897</v>
+        <v>1921</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10699</v>
+        <v>11292</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0120879204139267</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004652837358043962</v>
+        <v>0.004711450385855723</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02624205075684484</v>
+        <v>0.02769480170134381</v>
       </c>
     </row>
     <row r="20">
@@ -5310,7 +5310,7 @@
         <v>158026</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153953</v>
+        <v>153192</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>159947</v>
@@ -5319,7 +5319,7 @@
         <v>0.9879913809099194</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9625281562952703</v>
+        <v>0.9577671785350845</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5331,19 +5331,19 @@
         <v>244758</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238957</v>
+        <v>239732</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246845</v>
+        <v>246850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9878608859586685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.964446507025007</v>
+        <v>0.9675760943791092</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9962846305117922</v>
+        <v>0.9963031775805919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>387</v>
@@ -5352,19 +5352,19 @@
         <v>402785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>397014</v>
+        <v>396421</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>405816</v>
+        <v>405792</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9879120795860733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9737579492431552</v>
+        <v>0.9723051982986566</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9953471626419561</v>
+        <v>0.9952885496141443</v>
       </c>
     </row>
     <row r="21">
@@ -5456,19 +5456,19 @@
         <v>31963</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21392</v>
+        <v>21567</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43759</v>
+        <v>45204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01618225587968071</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01083047701336607</v>
+        <v>0.01091859352199047</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02215409997643649</v>
+        <v>0.02288543245947033</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -5477,19 +5477,19 @@
         <v>6210</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2927</v>
+        <v>2189</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12667</v>
+        <v>12626</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005514768869482411</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002599719736002238</v>
+        <v>0.001943637626180665</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01124938317216206</v>
+        <v>0.0112126573684347</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -5498,19 +5498,19 @@
         <v>38173</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28393</v>
+        <v>27081</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52439</v>
+        <v>53280</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01230898367948194</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009155470562122828</v>
+        <v>0.008732449269258832</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0169090203824095</v>
+        <v>0.017180258694474</v>
       </c>
     </row>
     <row r="23">
@@ -5527,19 +5527,19 @@
         <v>1943248</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1931452</v>
+        <v>1930007</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1953819</v>
+        <v>1953644</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9838177441203193</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9778459000235636</v>
+        <v>0.9771145675405297</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9891695229866341</v>
+        <v>0.9890814064780096</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1071</v>
@@ -5548,19 +5548,19 @@
         <v>1119826</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1113369</v>
+        <v>1113410</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1123109</v>
+        <v>1123847</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9944852311305176</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9887506168278372</v>
+        <v>0.9887873426315653</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9974002802639977</v>
+        <v>0.9980563623738193</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2909</v>
@@ -5569,19 +5569,19 @@
         <v>3063074</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3048808</v>
+        <v>3047967</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3072854</v>
+        <v>3074166</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.987691016320518</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9830909796175906</v>
+        <v>0.9828197413055262</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9908445294378772</v>
+        <v>0.9912675507307412</v>
       </c>
     </row>
     <row r="24">
@@ -5918,16 +5918,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4384</v>
+        <v>4478</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0028608741923209</v>
+        <v>0.002860874192320902</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01444213352957787</v>
+        <v>0.0147530057756127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5173</v>
+        <v>4442</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007760989034254856</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02949132495969575</v>
+        <v>0.02532277887682124</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5957,19 +5957,19 @@
         <v>2230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6157</v>
+        <v>6258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00465552263462455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001131772870598677</v>
+        <v>0.001150433495371291</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01285515912036263</v>
+        <v>0.01306543186073138</v>
       </c>
     </row>
     <row r="5">
@@ -5986,16 +5986,16 @@
         <v>302669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>299153</v>
+        <v>299059</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>303537</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9971391258076789</v>
+        <v>0.9971391258076792</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9855578664704214</v>
+        <v>0.9852469942243873</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6007,16 +6007,16 @@
         <v>174053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>170241</v>
+        <v>170972</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>175414</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.992239010965745</v>
+        <v>0.9922390109657453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9705086750403042</v>
+        <v>0.9746772211231797</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6028,19 +6028,19 @@
         <v>476720</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>472793</v>
+        <v>472692</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>478408</v>
+        <v>478399</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9953444773653756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9871448408796374</v>
+        <v>0.9869345681392678</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9988682271294013</v>
+        <v>0.9988495665046286</v>
       </c>
     </row>
     <row r="6">
@@ -6132,19 +6132,19 @@
         <v>2565</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8422</v>
+        <v>7032</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0114175937417206</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003115223272622287</v>
+        <v>0.003034488561352816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03748047277010937</v>
+        <v>0.03129652827044084</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -6166,19 +6166,19 @@
         <v>2565</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7944</v>
+        <v>7027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006939115460573702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001895566031227406</v>
+        <v>0.001879867258595544</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02148695944362103</v>
+        <v>0.01900731496298426</v>
       </c>
     </row>
     <row r="8">
@@ -6195,19 +6195,19 @@
         <v>222126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216269</v>
+        <v>217659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>223991</v>
+        <v>224009</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9885824062582795</v>
+        <v>0.9885824062582794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9625195272298894</v>
+        <v>0.9687034717295593</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9968847767273777</v>
+        <v>0.9969655114386472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>207</v>
@@ -6229,19 +6229,19 @@
         <v>367141</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>361762</v>
+        <v>362679</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>369005</v>
+        <v>369011</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9930608845394262</v>
+        <v>0.9930608845394264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.978513040556379</v>
+        <v>0.9809926850370158</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9981044339687726</v>
+        <v>0.9981201327414044</v>
       </c>
     </row>
     <row r="9">
@@ -6333,19 +6333,19 @@
         <v>2467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6680</v>
+        <v>6864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01081517893471119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003325010064445051</v>
+        <v>0.00339066544184035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02928344678468736</v>
+        <v>0.03009169572677623</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6367,19 +6367,19 @@
         <v>2467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6677</v>
+        <v>6655</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00898170827880382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0</v>
+        <v>0.002838645150537967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02430987713060162</v>
+        <v>0.02422927516857563</v>
       </c>
     </row>
     <row r="11">
@@ -6396,19 +6396,19 @@
         <v>225642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221429</v>
+        <v>221245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>227351</v>
+        <v>227336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9891848210652888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9707165532153127</v>
+        <v>0.9699083042732238</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.996674989935555</v>
+        <v>0.9966093345581596</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -6430,19 +6430,19 @@
         <v>272207</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>267997</v>
+        <v>268019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>274674</v>
+        <v>273894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9910182917211962</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9756901228693983</v>
+        <v>0.9757707248314245</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>1</v>
+        <v>0.9971613548494621</v>
       </c>
     </row>
     <row r="12">
@@ -6534,19 +6534,19 @@
         <v>6684</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3046</v>
+        <v>2977</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13823</v>
+        <v>13621</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0123119589707735</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005611017587601358</v>
+        <v>0.005483693289872798</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0254611621481497</v>
+        <v>0.02508946741648699</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -6555,19 +6555,19 @@
         <v>4167</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1042</v>
+        <v>1249</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12699</v>
+        <v>13382</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0180846454651816</v>
+        <v>0.01808464546518159</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004522702689625411</v>
+        <v>0.005420098978262527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05510683755559641</v>
+        <v>0.05807223981345531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -6576,19 +6576,19 @@
         <v>10851</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5520</v>
+        <v>5242</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20647</v>
+        <v>19295</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01403212042948619</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007137929205505116</v>
+        <v>0.00677898997248497</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02669926545658018</v>
+        <v>0.02495067732123217</v>
       </c>
     </row>
     <row r="14">
@@ -6605,19 +6605,19 @@
         <v>536207</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>529068</v>
+        <v>529270</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>539845</v>
+        <v>539914</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9876880410292267</v>
+        <v>0.9876880410292265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9745388378518501</v>
+        <v>0.9749105325835129</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9943889824123986</v>
+        <v>0.9945163067101271</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>295</v>
@@ -6626,19 +6626,19 @@
         <v>226272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217740</v>
+        <v>217057</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>229397</v>
+        <v>229190</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9819153545348183</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9448931624444038</v>
+        <v>0.941927760186544</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9954772973103748</v>
+        <v>0.9945799010217373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>809</v>
@@ -6647,19 +6647,19 @@
         <v>762479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>752683</v>
+        <v>754035</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767810</v>
+        <v>768088</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9859678795705137</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9733007345434197</v>
+        <v>0.9750493226787676</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.992862070794495</v>
+        <v>0.993221010027515</v>
       </c>
     </row>
     <row r="15">
@@ -6751,19 +6751,19 @@
         <v>7299</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3768</v>
+        <v>3587</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14268</v>
+        <v>13064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02831534102283329</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01461810994048726</v>
+        <v>0.01391372969450604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05535171251771053</v>
+        <v>0.05067930821574259</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6772,19 +6772,19 @@
         <v>2174</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>681</v>
+        <v>569</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5346</v>
+        <v>5469</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01418396191526194</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004444938017888077</v>
+        <v>0.003710210997825157</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03488710847885611</v>
+        <v>0.03568512980477439</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6793,19 +6793,19 @@
         <v>9473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5147</v>
+        <v>5144</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15888</v>
+        <v>16274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02304655581084529</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01252198468687902</v>
+        <v>0.01251615187275044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03865489205289427</v>
+        <v>0.03959458079767113</v>
       </c>
     </row>
     <row r="17">
@@ -6822,19 +6822,19 @@
         <v>250478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>243509</v>
+        <v>244713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>254009</v>
+        <v>254190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9716846589771666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9446482874822931</v>
+        <v>0.9493206917842574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9853818900595128</v>
+        <v>0.986086270305494</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>211</v>
@@ -6843,19 +6843,19 @@
         <v>151074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>147902</v>
+        <v>147779</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152567</v>
+        <v>152679</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9858160380847379</v>
+        <v>0.9858160380847382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.965112891521144</v>
+        <v>0.9643148701952249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9955550619821119</v>
+        <v>0.9962897890021748</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -6864,19 +6864,19 @@
         <v>401552</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>395137</v>
+        <v>394751</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>405878</v>
+        <v>405881</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9769534441891549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9613451079471057</v>
+        <v>0.9604054192023287</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9874780153131207</v>
+        <v>0.9874838481272495</v>
       </c>
     </row>
     <row r="18">
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01758503354373064</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01047514821680705</v>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="20">
@@ -7044,16 +7044,16 @@
         <v>124247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116368</v>
+        <v>115401</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>126471</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9824149664562694</v>
+        <v>0.9824149664562692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.920116078439642</v>
+        <v>0.912466621481074</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7065,16 +7065,16 @@
         <v>210088</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>201111</v>
+        <v>201070</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>212312</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9895248517831928</v>
+        <v>0.9895248517831927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9472437058650656</v>
+        <v>0.9470516594388799</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -7169,19 +7169,19 @@
         <v>19884</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13468</v>
+        <v>12477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29809</v>
+        <v>29581</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01210336173428541</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008197706990982479</v>
+        <v>0.007594459144270966</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01814446043454087</v>
+        <v>0.01800580952878768</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -7190,19 +7190,19 @@
         <v>9926</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4814</v>
+        <v>4847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20612</v>
+        <v>19813</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01131669567094195</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005488027202160669</v>
+        <v>0.005525917716104447</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02349924265191745</v>
+        <v>0.02258814187655926</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -7211,19 +7211,19 @@
         <v>29810</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21305</v>
+        <v>21030</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42929</v>
+        <v>43171</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01182954189220343</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00845456345256658</v>
+        <v>0.008345150113576146</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01703516231336999</v>
+        <v>0.01713141636581857</v>
       </c>
     </row>
     <row r="23">
@@ -7240,19 +7240,19 @@
         <v>1622962</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1613037</v>
+        <v>1613265</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1629378</v>
+        <v>1630369</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9878966382657144</v>
+        <v>0.9878966382657146</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9818555395654591</v>
+        <v>0.9819941904712122</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9918022930090175</v>
+        <v>0.9924055408557289</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1168</v>
@@ -7261,19 +7261,19 @@
         <v>867225</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>856539</v>
+        <v>857338</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>872337</v>
+        <v>872304</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9886833043290579</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9765007573480824</v>
+        <v>0.9774118581234399</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9945119727978394</v>
+        <v>0.9944740822838956</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2702</v>
@@ -7282,19 +7282,19 @@
         <v>2490187</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2477068</v>
+        <v>2476826</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2498692</v>
+        <v>2498967</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9881704581077965</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9829648376866301</v>
+        <v>0.9828685836341813</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9915454365474333</v>
+        <v>0.9916548498864238</v>
       </c>
     </row>
     <row r="24">
